--- a/团建费用.xlsx
+++ b/团建费用.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hun/Desktop/5月团建/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hun/Desktop/5月团建/hundredd.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -673,42 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,6 +682,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,21 +1045,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
     </row>
@@ -1070,10 +1070,10 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1115,10 +1115,10 @@
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="48">
         <f>SUM(F3,J5)</f>
         <v>520</v>
       </c>
@@ -1147,8 +1147,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
       <c r="G4" s="7" t="s">
@@ -1174,8 +1174,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="5"/>
       <c r="F5" s="27"/>
       <c r="G5" s="5"/>
@@ -1203,10 +1203,10 @@
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="48">
         <v>520</v>
       </c>
       <c r="E6" s="7"/>
@@ -1232,8 +1232,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="5"/>
       <c r="F7" s="27"/>
       <c r="G7" s="7" t="s">
@@ -1261,10 +1261,10 @@
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="48">
         <f>SUM(F8,J10)</f>
         <v>790</v>
       </c>
@@ -1292,8 +1292,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="5"/>
       <c r="F9" s="29"/>
       <c r="G9" s="7" t="s">
@@ -1320,8 +1320,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="5"/>
       <c r="F10" s="29"/>
       <c r="G10" s="5"/>
@@ -1375,7 +1375,7 @@
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="7">
@@ -1429,13 +1429,13 @@
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="48">
         <v>520</v>
       </c>
       <c r="E14" s="7"/>
@@ -1462,8 +1462,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="5"/>
       <c r="F15" s="29"/>
       <c r="G15" s="7" t="s">
@@ -1602,10 +1602,10 @@
       <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="48">
         <f>SUM(F20,J22)</f>
         <v>790</v>
       </c>
@@ -1633,8 +1633,8 @@
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="4"/>
       <c r="F21" s="29"/>
       <c r="G21" s="7" t="s">
@@ -1661,8 +1661,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="4"/>
       <c r="F22" s="29"/>
       <c r="G22" s="4"/>
@@ -1768,7 +1768,7 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="7"/>
@@ -1797,10 +1797,10 @@
       <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="48">
         <f>SUM(F27,J29)</f>
         <v>740</v>
       </c>
@@ -1830,8 +1830,8 @@
         <v>27</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="5"/>
       <c r="F28" s="29"/>
       <c r="G28" s="7" t="s">
@@ -1858,8 +1858,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="5"/>
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
@@ -1934,7 +1934,7 @@
         <f>SUM(E31:J31)</f>
         <v>13010</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="42" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
         <f>B32*0.8</f>
         <v>10408</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="42">
         <v>10500</v>
       </c>
     </row>
@@ -1958,17 +1958,17 @@
         <f>B32-B33</f>
         <v>2602</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="43">
         <f>B32-C33</f>
         <v>2510</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2008,18 +2008,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2065,7 +2065,7 @@
       <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="51" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="48"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
@@ -2107,7 +2107,7 @@
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="49"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
@@ -2233,7 +2233,7 @@
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="17"/>
@@ -2273,7 +2273,7 @@
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="17"/>
@@ -2475,7 +2475,7 @@
       <c r="A24" s="2">
         <v>25</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="17"/>
@@ -2507,7 +2507,7 @@
         <v>34</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="51"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
@@ -2545,7 +2545,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="52"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
